--- a/Files - GCMS - Final/Qualitative Analysis Report 2 with changes.xlsx
+++ b/Files - GCMS - Final/Qualitative Analysis Report 2 with changes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Minoti\Ph.D\Synopsis Format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project GC-MS\GC-MS\Files - GCMS - Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D30C453-739A-45A7-BC18-64DF01911DE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E922A2CB-6558-41BB-9C0D-8FB259EB744B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="9" r:id="rId1"/>
@@ -1171,94 +1171,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1279,9 +1279,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1319,9 +1319,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1354,26 +1354,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1406,26 +1389,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1601,7 +1567,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -1874,7 +1842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -2640,7 +2608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
